--- a/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/评论特征.xlsx
+++ b/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/评论特征.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD2CFE5-D39B-47E3-B449-A39C2F84BFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC4438-D48B-44B6-A20E-0F679952C14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="2460" windowWidth="12120" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="生产设计" sheetId="1" r:id="rId1"/>
-    <sheet name="售前服务" sheetId="2" r:id="rId2"/>
-    <sheet name="个人体验" sheetId="3" r:id="rId3"/>
+    <sheet name="聚类一" sheetId="1" r:id="rId1"/>
+    <sheet name="聚类二" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>后排</t>
   </si>
@@ -50,9 +49,6 @@
     <t>升级</t>
   </si>
   <si>
-    <t>规整</t>
-  </si>
-  <si>
     <t>驱动</t>
   </si>
   <si>
@@ -92,9 +88,6 @@
     <t>宣传</t>
   </si>
   <si>
-    <t>生产</t>
-  </si>
-  <si>
     <t>影响</t>
   </si>
   <si>
@@ -155,32 +148,38 @@
     <t>舒展</t>
   </si>
   <si>
-    <t>束缚</t>
-  </si>
-  <si>
     <t>启动</t>
   </si>
   <si>
-    <t>困难</t>
-  </si>
-  <si>
-    <t>约束</t>
-  </si>
-  <si>
-    <t>分配</t>
-  </si>
-  <si>
-    <t>检查</t>
-  </si>
-  <si>
     <t>营造</t>
-  </si>
-  <si>
-    <t>优化</t>
   </si>
   <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化</t>
+  </si>
+  <si>
+    <t>储备</t>
+  </si>
+  <si>
+    <t>冲击</t>
+  </si>
+  <si>
+    <t>免费</t>
+  </si>
+  <si>
+    <t>应付</t>
+  </si>
+  <si>
+    <t>讲究</t>
+  </si>
+  <si>
+    <t>娱乐</t>
+  </si>
+  <si>
+    <t>尝试</t>
   </si>
 </sst>
 </file>
@@ -508,27 +507,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -538,88 +537,120 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -629,188 +660,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EFC864-454D-4E60-848E-E87F2299D0F5}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E8D2-02ED-4285-82A0-199760432F1E}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
